--- a/VerveStacks_PRT/vt_vervestacks_PRT_v1.xlsx
+++ b/VerveStacks_PRT/vt_vervestacks_PRT_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_PRT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1270B02D-64C6-4766-8373-4C621D5BBE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C5281BB-AC9E-4050-B263-1950F12D0A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{249925ED-5F03-4C97-9E0F-A2E497D19BE5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{985BE4B4-5C8A-4B55-BAF3-23B04B01EBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F29421B-615A-475E-9AF9-4B094340A594}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FBA121-2AB6-44B8-8C7E-F08459A1E36A}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3951,7 +3951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F491E52-9B8D-4777-AC76-A598898F5C48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F8F89D-CF96-4E7E-96D3-A645EB41EF1E}">
   <dimension ref="A2:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4868,7 +4868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AA2750-82CC-4BB3-8000-7836BDC64790}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D325130C-4DD4-4425-AA45-154AFAA9DCFF}">
   <dimension ref="A2:S128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_PRT/vt_vervestacks_PRT_v1.xlsx
+++ b/VerveStacks_PRT/vt_vervestacks_PRT_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_PRT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C5281BB-AC9E-4050-B263-1950F12D0A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{040584DF-99C3-4EA4-973F-F4C0DC2DE49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{985BE4B4-5C8A-4B55-BAF3-23B04B01EBFC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6C83F284-B70C-46AB-B044-D67851CF7B75}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FBA121-2AB6-44B8-8C7E-F08459A1E36A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15281CA8-123C-4183-A862-D3FD12060B07}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3951,7 +3951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F8F89D-CF96-4E7E-96D3-A645EB41EF1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03F2F7D-6DCE-44F1-9BDC-A75E6CB8C57C}">
   <dimension ref="A2:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4033,7 +4033,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0.52272499999999988</v>
+        <v>0.43283842592592592</v>
       </c>
       <c r="E4">
         <v>1365</v>
@@ -4089,7 +4089,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>0.52272499999999988</v>
+        <v>0.43283842592592592</v>
       </c>
       <c r="E5">
         <v>1365</v>
@@ -4145,7 +4145,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>0.49118125000000001</v>
+        <v>0.40671886574074079</v>
       </c>
       <c r="E6">
         <v>1365</v>
@@ -4201,7 +4201,7 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>0.49118125000000001</v>
+        <v>0.40671886574074079</v>
       </c>
       <c r="E7">
         <v>1365</v>
@@ -4257,7 +4257,7 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>0.49118125000000001</v>
+        <v>0.40671886574074073</v>
       </c>
       <c r="E8">
         <v>1365</v>
@@ -4313,7 +4313,7 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>0.49118125000000001</v>
+        <v>0.40671886574074073</v>
       </c>
       <c r="E9">
         <v>1365</v>
@@ -4369,7 +4369,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>0.49118125000000001</v>
+        <v>0.40671886574074073</v>
       </c>
       <c r="E10">
         <v>1365</v>
@@ -4425,7 +4425,7 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>0.47315625000000006</v>
+        <v>0.39179340277777791</v>
       </c>
       <c r="E11">
         <v>1365</v>
@@ -4481,7 +4481,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>0.47315625000000006</v>
+        <v>0.39179340277777791</v>
       </c>
       <c r="E12">
         <v>1365</v>
@@ -4537,7 +4537,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>0.47315625000000006</v>
+        <v>0.39179340277777791</v>
       </c>
       <c r="E13">
         <v>1365</v>
@@ -4593,7 +4593,7 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>0.48667500000000002</v>
+        <v>0.40298750000000005</v>
       </c>
       <c r="E14">
         <v>1365</v>
@@ -4649,7 +4649,7 @@
         <v>12</v>
       </c>
       <c r="D15">
-        <v>0.25235000000000002</v>
+        <v>0.20895648148148155</v>
       </c>
       <c r="E15">
         <v>1365</v>
@@ -4868,7 +4868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D325130C-4DD4-4425-AA45-154AFAA9DCFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92963DA-C7D9-4277-A4F0-632923CA78FB}">
   <dimension ref="A2:S128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5165,7 +5165,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="F8">
-        <v>0.42229999999999995</v>
+        <v>0.34968227513227518</v>
       </c>
       <c r="G8">
         <v>1485.0000000000002</v>
@@ -5218,7 +5218,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="F9">
-        <v>0.51500000000000001</v>
+        <v>0.42644179894179901</v>
       </c>
       <c r="G9">
         <v>1265</v>
@@ -5271,7 +5271,7 @@
         <v>0.112</v>
       </c>
       <c r="F10">
-        <v>0.52971428571428569</v>
+        <v>0.43862585034013613</v>
       </c>
       <c r="G10">
         <v>1327.8571428571429</v>
@@ -5324,7 +5324,7 @@
         <v>0.04</v>
       </c>
       <c r="F11">
-        <v>0.51500000000000001</v>
+        <v>0.42644179894179901</v>
       </c>
       <c r="G11">
         <v>1485.0000000000002</v>
@@ -5377,7 +5377,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="F12">
-        <v>0.55620000000000003</v>
+        <v>0.46055714285714294</v>
       </c>
       <c r="G12">
         <v>1485.0000000000002</v>
@@ -5430,7 +5430,7 @@
         <v>0.41799999999999998</v>
       </c>
       <c r="F13">
-        <v>0.59739999999999993</v>
+        <v>0.49467248677248676</v>
       </c>
       <c r="G13">
         <v>1100</v>
@@ -5483,7 +5483,7 @@
         <v>0.41799999999999998</v>
       </c>
       <c r="F14">
-        <v>0.59739999999999993</v>
+        <v>0.49467248677248676</v>
       </c>
       <c r="G14">
         <v>1100</v>
@@ -5536,7 +5536,7 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="F15">
-        <v>0.56135000000000002</v>
+        <v>0.4648215608465609</v>
       </c>
       <c r="G15">
         <v>1100</v>
@@ -5589,7 +5589,7 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="F16">
-        <v>0.56135000000000002</v>
+        <v>0.4648215608465609</v>
       </c>
       <c r="G16">
         <v>1100</v>
@@ -5642,7 +5642,7 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="F17">
-        <v>0.56135000000000002</v>
+        <v>0.46482156084656084</v>
       </c>
       <c r="G17">
         <v>1100</v>
@@ -5695,7 +5695,7 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="F18">
-        <v>0.56135000000000002</v>
+        <v>0.46482156084656084</v>
       </c>
       <c r="G18">
         <v>1100</v>
@@ -5748,7 +5748,7 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="F19">
-        <v>0.56135000000000002</v>
+        <v>0.46482156084656084</v>
       </c>
       <c r="G19">
         <v>1100</v>
@@ -5801,7 +5801,7 @@
         <v>0.33</v>
       </c>
       <c r="F20">
-        <v>0.54075000000000006</v>
+        <v>0.44776388888888902</v>
       </c>
       <c r="G20">
         <v>1100</v>
@@ -5854,7 +5854,7 @@
         <v>0.33</v>
       </c>
       <c r="F21">
-        <v>0.54075000000000006</v>
+        <v>0.44776388888888902</v>
       </c>
       <c r="G21">
         <v>1100</v>
@@ -5907,7 +5907,7 @@
         <v>0.33</v>
       </c>
       <c r="F22">
-        <v>0.54075000000000006</v>
+        <v>0.44776388888888902</v>
       </c>
       <c r="G22">
         <v>1100</v>
@@ -5960,7 +5960,7 @@
         <v>3.1E-2</v>
       </c>
       <c r="F23">
-        <v>0.28840000000000005</v>
+        <v>0.23880740740740747</v>
       </c>
       <c r="G23">
         <v>1188</v>
@@ -6013,7 +6013,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="F24">
-        <v>0.28840000000000005</v>
+        <v>0.23880740740740747</v>
       </c>
       <c r="G24">
         <v>1188</v>
